--- a/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/班级学生基础数据导入.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/班级学生基础数据导入.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepository\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Github\kasugaharu\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F72E7B-2C46-4C5D-870D-63521393B97D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1班导入数据" sheetId="1" r:id="rId1"/>
@@ -402,8 +403,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -553,8 +554,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="1"/>
-    <cellStyle name="常规 5 2" xfId="2"/>
+    <cellStyle name="常规 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 5 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -865,35 +866,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.109375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -943,7 +944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.6">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -979,7 +980,7 @@
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.6">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1051,7 +1052,7 @@
       </c>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.6">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1087,7 +1088,7 @@
       </c>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.6">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1123,7 +1124,7 @@
       </c>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.6">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1159,7 +1160,7 @@
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.6">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1195,7 +1196,7 @@
       </c>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.6">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1231,7 +1232,7 @@
       </c>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.6">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1267,7 +1268,7 @@
       </c>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.6">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1303,7 +1304,7 @@
       </c>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.6">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1339,7 +1340,7 @@
       </c>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.6">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1375,7 +1376,7 @@
       </c>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.6">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1411,7 +1412,7 @@
       </c>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.6">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1447,7 +1448,7 @@
       </c>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.6">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1483,7 +1484,7 @@
       </c>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15.6">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1522,16 +1523,16 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" sqref="E18:E1048576">
+    <dataValidation type="list" sqref="E18:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="O18:O1048576">
+    <dataValidation type="list" sqref="O18:O1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"正常,流水,休学,勤工俭学,顶岗实习,毕业,参军"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="O2:O17">
+    <dataValidation type="list" sqref="O2:O17" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"正常,PupilsAway,休学,勤工俭学,顶岗实习,毕业,参军"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E2:E17">
+    <dataValidation type="list" sqref="E2:E17" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"男,女,Man,Female"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1540,19 +1541,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1602,7 +1604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.6">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1638,7 +1640,7 @@
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1674,7 +1676,7 @@
       </c>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.6">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1710,7 +1712,7 @@
       </c>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.6">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1746,7 +1748,7 @@
       </c>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.6">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1782,7 +1784,7 @@
       </c>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.6">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1818,7 +1820,7 @@
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.6">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1854,7 +1856,7 @@
       </c>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.6">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1890,7 +1892,7 @@
       </c>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.6">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1926,7 +1928,7 @@
       </c>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.6">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1962,7 +1964,7 @@
       </c>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.6">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1998,7 +2000,7 @@
       </c>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.6">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2034,7 +2036,7 @@
       </c>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.6">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2070,7 +2072,7 @@
       </c>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="46.8">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2106,7 +2108,7 @@
       </c>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.6">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2142,7 +2144,7 @@
       </c>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15.6">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2181,10 +2183,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" sqref="E2:E17">
+    <dataValidation type="list" sqref="E2:E17" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"男,女,Man,Female"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="O2:O17">
+    <dataValidation type="list" sqref="O2:O17" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"正常,PupilsAway,休学,勤工俭学,顶岗实习,毕业,参军"</formula1>
     </dataValidation>
   </dataValidations>
